--- a/usa.xlsx
+++ b/usa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t xml:space="preserve">mpg</t>
   </si>
@@ -35,13 +35,7 @@
     <t xml:space="preserve">model_year</t>
   </si>
   <si>
-    <t xml:space="preserve">origin</t>
-  </si>
-  <si>
     <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usa</t>
   </si>
   <si>
     <t xml:space="preserve">chevrolet chevelle malibu</t>
@@ -650,9 +644,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I250" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:I250"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H250" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:H250"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="mpg"/>
     <tableColumn id="2" name="cylinders"/>
     <tableColumn id="3" name="displacement"/>
@@ -660,8 +654,7 @@
     <tableColumn id="5" name="weight"/>
     <tableColumn id="6" name="acceleration"/>
     <tableColumn id="7" name="model_year"/>
-    <tableColumn id="8" name="origin"/>
-    <tableColumn id="9" name="name"/>
+    <tableColumn id="8" name="name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -977,9 +970,6 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1004,10 +994,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1035,9 +1022,6 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1062,10 +1046,7 @@
         <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1091,10 +1072,7 @@
         <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1120,10 +1098,7 @@
         <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1124,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1178,10 +1150,7 @@
         <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1207,10 +1176,7 @@
         <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1236,10 +1202,7 @@
         <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1265,10 +1228,7 @@
         <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -1294,10 +1254,7 @@
         <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1323,10 +1280,7 @@
         <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1352,10 +1306,7 @@
         <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1381,10 +1332,7 @@
         <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -1410,10 +1358,7 @@
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -1439,10 +1384,7 @@
         <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -1468,10 +1410,7 @@
         <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -1497,10 +1436,7 @@
         <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -1526,10 +1462,7 @@
         <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -1555,10 +1488,7 @@
         <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -1584,10 +1514,7 @@
         <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -1613,10 +1540,7 @@
         <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1642,10 +1566,7 @@
         <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -1669,10 +1590,7 @@
         <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -1698,10 +1616,7 @@
         <v>71</v>
       </c>
       <c r="H26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -1727,10 +1642,7 @@
         <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -1756,10 +1668,7 @@
         <v>71</v>
       </c>
       <c r="H28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1785,10 +1694,7 @@
         <v>71</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -1814,10 +1720,7 @@
         <v>71</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -1843,10 +1746,7 @@
         <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1872,10 +1772,7 @@
         <v>71</v>
       </c>
       <c r="H32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -1901,10 +1798,7 @@
         <v>71</v>
       </c>
       <c r="H33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -1930,10 +1824,7 @@
         <v>71</v>
       </c>
       <c r="H34" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -1959,10 +1850,7 @@
         <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
@@ -1988,10 +1876,7 @@
         <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
@@ -2017,10 +1902,7 @@
         <v>71</v>
       </c>
       <c r="H37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
@@ -2046,10 +1928,7 @@
         <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
@@ -2075,10 +1954,7 @@
         <v>71</v>
       </c>
       <c r="H39" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
@@ -2104,10 +1980,7 @@
         <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
@@ -2133,10 +2006,7 @@
         <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
@@ -2162,10 +2032,7 @@
         <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
@@ -2191,10 +2058,7 @@
         <v>71</v>
       </c>
       <c r="H43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
@@ -2220,10 +2084,7 @@
         <v>72</v>
       </c>
       <c r="H44" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
@@ -2249,10 +2110,7 @@
         <v>72</v>
       </c>
       <c r="H45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
@@ -2278,10 +2136,7 @@
         <v>72</v>
       </c>
       <c r="H46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
@@ -2307,10 +2162,7 @@
         <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -2336,10 +2188,7 @@
         <v>72</v>
       </c>
       <c r="H48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -2365,10 +2214,7 @@
         <v>72</v>
       </c>
       <c r="H49" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -2394,10 +2240,7 @@
         <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -2423,10 +2266,7 @@
         <v>72</v>
       </c>
       <c r="H51" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52">
@@ -2452,10 +2292,7 @@
         <v>72</v>
       </c>
       <c r="H52" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53">
@@ -2481,10 +2318,7 @@
         <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54">
@@ -2510,10 +2344,7 @@
         <v>72</v>
       </c>
       <c r="H54" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55">
@@ -2539,10 +2370,7 @@
         <v>72</v>
       </c>
       <c r="H55" t="s">
-        <v>9</v>
-      </c>
-      <c r="I55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56">
@@ -2568,10 +2396,7 @@
         <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57">
@@ -2597,10 +2422,7 @@
         <v>72</v>
       </c>
       <c r="H57" t="s">
-        <v>9</v>
-      </c>
-      <c r="I57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
@@ -2626,10 +2448,7 @@
         <v>72</v>
       </c>
       <c r="H58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
@@ -2655,10 +2474,7 @@
         <v>72</v>
       </c>
       <c r="H59" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60">
@@ -2684,10 +2500,7 @@
         <v>72</v>
       </c>
       <c r="H60" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61">
@@ -2713,10 +2526,7 @@
         <v>72</v>
       </c>
       <c r="H61" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62">
@@ -2742,10 +2552,7 @@
         <v>73</v>
       </c>
       <c r="H62" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63">
@@ -2771,10 +2578,7 @@
         <v>73</v>
       </c>
       <c r="H63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
@@ -2800,10 +2604,7 @@
         <v>73</v>
       </c>
       <c r="H64" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65">
@@ -2829,10 +2630,7 @@
         <v>73</v>
       </c>
       <c r="H65" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66">
@@ -2858,10 +2656,7 @@
         <v>73</v>
       </c>
       <c r="H66" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67">
@@ -2887,10 +2682,7 @@
         <v>73</v>
       </c>
       <c r="H67" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68">
@@ -2916,10 +2708,7 @@
         <v>73</v>
       </c>
       <c r="H68" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69">
@@ -2945,10 +2734,7 @@
         <v>73</v>
       </c>
       <c r="H69" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70">
@@ -2974,10 +2760,7 @@
         <v>73</v>
       </c>
       <c r="H70" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71">
@@ -3003,10 +2786,7 @@
         <v>73</v>
       </c>
       <c r="H71" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72">
@@ -3032,10 +2812,7 @@
         <v>73</v>
       </c>
       <c r="H72" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73">
@@ -3061,10 +2838,7 @@
         <v>73</v>
       </c>
       <c r="H73" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74">
@@ -3090,10 +2864,7 @@
         <v>73</v>
       </c>
       <c r="H74" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75">
@@ -3119,10 +2890,7 @@
         <v>73</v>
       </c>
       <c r="H75" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76">
@@ -3148,10 +2916,7 @@
         <v>73</v>
       </c>
       <c r="H76" t="s">
-        <v>9</v>
-      </c>
-      <c r="I76" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -3177,10 +2942,7 @@
         <v>73</v>
       </c>
       <c r="H77" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
@@ -3206,10 +2968,7 @@
         <v>73</v>
       </c>
       <c r="H78" t="s">
-        <v>9</v>
-      </c>
-      <c r="I78" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
@@ -3235,10 +2994,7 @@
         <v>73</v>
       </c>
       <c r="H79" t="s">
-        <v>9</v>
-      </c>
-      <c r="I79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
@@ -3264,10 +3020,7 @@
         <v>73</v>
       </c>
       <c r="H80" t="s">
-        <v>9</v>
-      </c>
-      <c r="I80" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81">
@@ -3293,10 +3046,7 @@
         <v>73</v>
       </c>
       <c r="H81" t="s">
-        <v>9</v>
-      </c>
-      <c r="I81" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82">
@@ -3322,10 +3072,7 @@
         <v>73</v>
       </c>
       <c r="H82" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83">
@@ -3351,10 +3098,7 @@
         <v>73</v>
       </c>
       <c r="H83" t="s">
-        <v>9</v>
-      </c>
-      <c r="I83" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
@@ -3380,10 +3124,7 @@
         <v>73</v>
       </c>
       <c r="H84" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85">
@@ -3409,10 +3150,7 @@
         <v>73</v>
       </c>
       <c r="H85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
@@ -3438,10 +3176,7 @@
         <v>73</v>
       </c>
       <c r="H86" t="s">
-        <v>9</v>
-      </c>
-      <c r="I86" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87">
@@ -3467,10 +3202,7 @@
         <v>73</v>
       </c>
       <c r="H87" t="s">
-        <v>9</v>
-      </c>
-      <c r="I87" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88">
@@ -3496,10 +3228,7 @@
         <v>73</v>
       </c>
       <c r="H88" t="s">
-        <v>9</v>
-      </c>
-      <c r="I88" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89">
@@ -3525,10 +3254,7 @@
         <v>73</v>
       </c>
       <c r="H89" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90">
@@ -3554,10 +3280,7 @@
         <v>73</v>
       </c>
       <c r="H90" t="s">
-        <v>9</v>
-      </c>
-      <c r="I90" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91">
@@ -3583,10 +3306,7 @@
         <v>74</v>
       </c>
       <c r="H91" t="s">
-        <v>9</v>
-      </c>
-      <c r="I91" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
@@ -3610,10 +3330,7 @@
         <v>74</v>
       </c>
       <c r="H92" t="s">
-        <v>9</v>
-      </c>
-      <c r="I92" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93">
@@ -3639,10 +3356,7 @@
         <v>74</v>
       </c>
       <c r="H93" t="s">
-        <v>9</v>
-      </c>
-      <c r="I93" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -3668,10 +3382,7 @@
         <v>74</v>
       </c>
       <c r="H94" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95">
@@ -3697,10 +3408,7 @@
         <v>74</v>
       </c>
       <c r="H95" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -3726,10 +3434,7 @@
         <v>74</v>
       </c>
       <c r="H96" t="s">
-        <v>9</v>
-      </c>
-      <c r="I96" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97">
@@ -3755,10 +3460,7 @@
         <v>74</v>
       </c>
       <c r="H97" t="s">
-        <v>9</v>
-      </c>
-      <c r="I97" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98">
@@ -3784,10 +3486,7 @@
         <v>74</v>
       </c>
       <c r="H98" t="s">
-        <v>9</v>
-      </c>
-      <c r="I98" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
@@ -3813,10 +3512,7 @@
         <v>74</v>
       </c>
       <c r="H99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I99" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100">
@@ -3842,10 +3538,7 @@
         <v>74</v>
       </c>
       <c r="H100" t="s">
-        <v>9</v>
-      </c>
-      <c r="I100" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101">
@@ -3871,10 +3564,7 @@
         <v>74</v>
       </c>
       <c r="H101" t="s">
-        <v>9</v>
-      </c>
-      <c r="I101" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102">
@@ -3900,10 +3590,7 @@
         <v>74</v>
       </c>
       <c r="H102" t="s">
-        <v>9</v>
-      </c>
-      <c r="I102" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103">
@@ -3929,10 +3616,7 @@
         <v>74</v>
       </c>
       <c r="H103" t="s">
-        <v>9</v>
-      </c>
-      <c r="I103" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104">
@@ -3958,10 +3642,7 @@
         <v>74</v>
       </c>
       <c r="H104" t="s">
-        <v>9</v>
-      </c>
-      <c r="I104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105">
@@ -3987,10 +3668,7 @@
         <v>74</v>
       </c>
       <c r="H105" t="s">
-        <v>9</v>
-      </c>
-      <c r="I105" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106">
@@ -4016,10 +3694,7 @@
         <v>75</v>
       </c>
       <c r="H106" t="s">
-        <v>9</v>
-      </c>
-      <c r="I106" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107">
@@ -4045,10 +3720,7 @@
         <v>75</v>
       </c>
       <c r="H107" t="s">
-        <v>9</v>
-      </c>
-      <c r="I107" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108">
@@ -4074,10 +3746,7 @@
         <v>75</v>
       </c>
       <c r="H108" t="s">
-        <v>9</v>
-      </c>
-      <c r="I108" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109">
@@ -4103,10 +3772,7 @@
         <v>75</v>
       </c>
       <c r="H109" t="s">
-        <v>9</v>
-      </c>
-      <c r="I109" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
@@ -4132,10 +3798,7 @@
         <v>75</v>
       </c>
       <c r="H110" t="s">
-        <v>9</v>
-      </c>
-      <c r="I110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111">
@@ -4161,10 +3824,7 @@
         <v>75</v>
       </c>
       <c r="H111" t="s">
-        <v>9</v>
-      </c>
-      <c r="I111" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112">
@@ -4190,10 +3850,7 @@
         <v>75</v>
       </c>
       <c r="H112" t="s">
-        <v>9</v>
-      </c>
-      <c r="I112" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113">
@@ -4219,10 +3876,7 @@
         <v>75</v>
       </c>
       <c r="H113" t="s">
-        <v>9</v>
-      </c>
-      <c r="I113" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114">
@@ -4248,10 +3902,7 @@
         <v>75</v>
       </c>
       <c r="H114" t="s">
-        <v>9</v>
-      </c>
-      <c r="I114" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115">
@@ -4277,10 +3928,7 @@
         <v>75</v>
       </c>
       <c r="H115" t="s">
-        <v>9</v>
-      </c>
-      <c r="I115" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116">
@@ -4306,10 +3954,7 @@
         <v>75</v>
       </c>
       <c r="H116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I116" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
@@ -4335,10 +3980,7 @@
         <v>75</v>
       </c>
       <c r="H117" t="s">
-        <v>9</v>
-      </c>
-      <c r="I117" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118">
@@ -4364,10 +4006,7 @@
         <v>75</v>
       </c>
       <c r="H118" t="s">
-        <v>9</v>
-      </c>
-      <c r="I118" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119">
@@ -4393,10 +4032,7 @@
         <v>75</v>
       </c>
       <c r="H119" t="s">
-        <v>9</v>
-      </c>
-      <c r="I119" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120">
@@ -4422,10 +4058,7 @@
         <v>75</v>
       </c>
       <c r="H120" t="s">
-        <v>9</v>
-      </c>
-      <c r="I120" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121">
@@ -4451,10 +4084,7 @@
         <v>75</v>
       </c>
       <c r="H121" t="s">
-        <v>9</v>
-      </c>
-      <c r="I121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122">
@@ -4480,10 +4110,7 @@
         <v>75</v>
       </c>
       <c r="H122" t="s">
-        <v>9</v>
-      </c>
-      <c r="I122" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123">
@@ -4509,10 +4136,7 @@
         <v>75</v>
       </c>
       <c r="H123" t="s">
-        <v>9</v>
-      </c>
-      <c r="I123" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124">
@@ -4538,10 +4162,7 @@
         <v>75</v>
       </c>
       <c r="H124" t="s">
-        <v>9</v>
-      </c>
-      <c r="I124" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125">
@@ -4567,10 +4188,7 @@
         <v>75</v>
       </c>
       <c r="H125" t="s">
-        <v>9</v>
-      </c>
-      <c r="I125" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126">
@@ -4596,10 +4214,7 @@
         <v>76</v>
       </c>
       <c r="H126" t="s">
-        <v>9</v>
-      </c>
-      <c r="I126" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127">
@@ -4625,10 +4240,7 @@
         <v>76</v>
       </c>
       <c r="H127" t="s">
-        <v>9</v>
-      </c>
-      <c r="I127" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128">
@@ -4654,10 +4266,7 @@
         <v>76</v>
       </c>
       <c r="H128" t="s">
-        <v>9</v>
-      </c>
-      <c r="I128" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129">
@@ -4683,10 +4292,7 @@
         <v>76</v>
       </c>
       <c r="H129" t="s">
-        <v>9</v>
-      </c>
-      <c r="I129" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130">
@@ -4712,10 +4318,7 @@
         <v>76</v>
       </c>
       <c r="H130" t="s">
-        <v>9</v>
-      </c>
-      <c r="I130" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131">
@@ -4741,10 +4344,7 @@
         <v>76</v>
       </c>
       <c r="H131" t="s">
-        <v>9</v>
-      </c>
-      <c r="I131" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="132">
@@ -4770,10 +4370,7 @@
         <v>76</v>
       </c>
       <c r="H132" t="s">
-        <v>9</v>
-      </c>
-      <c r="I132" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133">
@@ -4799,10 +4396,7 @@
         <v>76</v>
       </c>
       <c r="H133" t="s">
-        <v>9</v>
-      </c>
-      <c r="I133" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134">
@@ -4828,10 +4422,7 @@
         <v>76</v>
       </c>
       <c r="H134" t="s">
-        <v>9</v>
-      </c>
-      <c r="I134" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135">
@@ -4857,10 +4448,7 @@
         <v>76</v>
       </c>
       <c r="H135" t="s">
-        <v>9</v>
-      </c>
-      <c r="I135" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136">
@@ -4886,10 +4474,7 @@
         <v>76</v>
       </c>
       <c r="H136" t="s">
-        <v>9</v>
-      </c>
-      <c r="I136" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137">
@@ -4915,10 +4500,7 @@
         <v>76</v>
       </c>
       <c r="H137" t="s">
-        <v>9</v>
-      </c>
-      <c r="I137" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138">
@@ -4944,10 +4526,7 @@
         <v>76</v>
       </c>
       <c r="H138" t="s">
-        <v>9</v>
-      </c>
-      <c r="I138" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139">
@@ -4973,10 +4552,7 @@
         <v>76</v>
       </c>
       <c r="H139" t="s">
-        <v>9</v>
-      </c>
-      <c r="I139" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140">
@@ -5002,10 +4578,7 @@
         <v>76</v>
       </c>
       <c r="H140" t="s">
-        <v>9</v>
-      </c>
-      <c r="I140" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="141">
@@ -5031,10 +4604,7 @@
         <v>76</v>
       </c>
       <c r="H141" t="s">
-        <v>9</v>
-      </c>
-      <c r="I141" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="142">
@@ -5060,10 +4630,7 @@
         <v>76</v>
       </c>
       <c r="H142" t="s">
-        <v>9</v>
-      </c>
-      <c r="I142" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143">
@@ -5089,10 +4656,7 @@
         <v>76</v>
       </c>
       <c r="H143" t="s">
-        <v>9</v>
-      </c>
-      <c r="I143" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144">
@@ -5118,10 +4682,7 @@
         <v>76</v>
       </c>
       <c r="H144" t="s">
-        <v>9</v>
-      </c>
-      <c r="I144" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145">
@@ -5147,10 +4708,7 @@
         <v>76</v>
       </c>
       <c r="H145" t="s">
-        <v>9</v>
-      </c>
-      <c r="I145" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146">
@@ -5176,10 +4734,7 @@
         <v>76</v>
       </c>
       <c r="H146" t="s">
-        <v>9</v>
-      </c>
-      <c r="I146" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="147">
@@ -5205,10 +4760,7 @@
         <v>76</v>
       </c>
       <c r="H147" t="s">
-        <v>9</v>
-      </c>
-      <c r="I147" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148">
@@ -5234,10 +4786,7 @@
         <v>77</v>
       </c>
       <c r="H148" t="s">
-        <v>9</v>
-      </c>
-      <c r="I148" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="149">
@@ -5263,10 +4812,7 @@
         <v>77</v>
       </c>
       <c r="H149" t="s">
-        <v>9</v>
-      </c>
-      <c r="I149" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="150">
@@ -5292,10 +4838,7 @@
         <v>77</v>
       </c>
       <c r="H150" t="s">
-        <v>9</v>
-      </c>
-      <c r="I150" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="151">
@@ -5321,10 +4864,7 @@
         <v>77</v>
       </c>
       <c r="H151" t="s">
-        <v>9</v>
-      </c>
-      <c r="I151" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="152">
@@ -5350,10 +4890,7 @@
         <v>77</v>
       </c>
       <c r="H152" t="s">
-        <v>9</v>
-      </c>
-      <c r="I152" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="153">
@@ -5379,10 +4916,7 @@
         <v>77</v>
       </c>
       <c r="H153" t="s">
-        <v>9</v>
-      </c>
-      <c r="I153" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="154">
@@ -5408,10 +4942,7 @@
         <v>77</v>
       </c>
       <c r="H154" t="s">
-        <v>9</v>
-      </c>
-      <c r="I154" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155">
@@ -5437,10 +4968,7 @@
         <v>77</v>
       </c>
       <c r="H155" t="s">
-        <v>9</v>
-      </c>
-      <c r="I155" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="156">
@@ -5466,10 +4994,7 @@
         <v>77</v>
       </c>
       <c r="H156" t="s">
-        <v>9</v>
-      </c>
-      <c r="I156" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="157">
@@ -5495,10 +5020,7 @@
         <v>77</v>
       </c>
       <c r="H157" t="s">
-        <v>9</v>
-      </c>
-      <c r="I157" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="158">
@@ -5524,10 +5046,7 @@
         <v>77</v>
       </c>
       <c r="H158" t="s">
-        <v>9</v>
-      </c>
-      <c r="I158" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159">
@@ -5553,10 +5072,7 @@
         <v>77</v>
       </c>
       <c r="H159" t="s">
-        <v>9</v>
-      </c>
-      <c r="I159" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="160">
@@ -5582,10 +5098,7 @@
         <v>77</v>
       </c>
       <c r="H160" t="s">
-        <v>9</v>
-      </c>
-      <c r="I160" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161">
@@ -5611,10 +5124,7 @@
         <v>77</v>
       </c>
       <c r="H161" t="s">
-        <v>9</v>
-      </c>
-      <c r="I161" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="162">
@@ -5640,10 +5150,7 @@
         <v>77</v>
       </c>
       <c r="H162" t="s">
-        <v>9</v>
-      </c>
-      <c r="I162" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="163">
@@ -5669,10 +5176,7 @@
         <v>77</v>
       </c>
       <c r="H163" t="s">
-        <v>9</v>
-      </c>
-      <c r="I163" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="164">
@@ -5698,10 +5202,7 @@
         <v>77</v>
       </c>
       <c r="H164" t="s">
-        <v>9</v>
-      </c>
-      <c r="I164" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165">
@@ -5727,10 +5228,7 @@
         <v>77</v>
       </c>
       <c r="H165" t="s">
-        <v>9</v>
-      </c>
-      <c r="I165" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="166">
@@ -5756,10 +5254,7 @@
         <v>78</v>
       </c>
       <c r="H166" t="s">
-        <v>9</v>
-      </c>
-      <c r="I166" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="167">
@@ -5785,10 +5280,7 @@
         <v>78</v>
       </c>
       <c r="H167" t="s">
-        <v>9</v>
-      </c>
-      <c r="I167" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168">
@@ -5814,10 +5306,7 @@
         <v>78</v>
       </c>
       <c r="H168" t="s">
-        <v>9</v>
-      </c>
-      <c r="I168" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="169">
@@ -5843,10 +5332,7 @@
         <v>78</v>
       </c>
       <c r="H169" t="s">
-        <v>9</v>
-      </c>
-      <c r="I169" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="170">
@@ -5872,10 +5358,7 @@
         <v>78</v>
       </c>
       <c r="H170" t="s">
-        <v>9</v>
-      </c>
-      <c r="I170" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="171">
@@ -5901,10 +5384,7 @@
         <v>78</v>
       </c>
       <c r="H171" t="s">
-        <v>9</v>
-      </c>
-      <c r="I171" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172">
@@ -5930,10 +5410,7 @@
         <v>78</v>
       </c>
       <c r="H172" t="s">
-        <v>9</v>
-      </c>
-      <c r="I172" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173">
@@ -5959,10 +5436,7 @@
         <v>78</v>
       </c>
       <c r="H173" t="s">
-        <v>9</v>
-      </c>
-      <c r="I173" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="174">
@@ -5988,10 +5462,7 @@
         <v>78</v>
       </c>
       <c r="H174" t="s">
-        <v>9</v>
-      </c>
-      <c r="I174" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="175">
@@ -6017,10 +5488,7 @@
         <v>78</v>
       </c>
       <c r="H175" t="s">
-        <v>9</v>
-      </c>
-      <c r="I175" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176">
@@ -6046,10 +5514,7 @@
         <v>78</v>
       </c>
       <c r="H176" t="s">
-        <v>9</v>
-      </c>
-      <c r="I176" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="177">
@@ -6075,10 +5540,7 @@
         <v>78</v>
       </c>
       <c r="H177" t="s">
-        <v>9</v>
-      </c>
-      <c r="I177" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="178">
@@ -6104,10 +5566,7 @@
         <v>78</v>
       </c>
       <c r="H178" t="s">
-        <v>9</v>
-      </c>
-      <c r="I178" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179">
@@ -6133,10 +5592,7 @@
         <v>78</v>
       </c>
       <c r="H179" t="s">
-        <v>9</v>
-      </c>
-      <c r="I179" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180">
@@ -6162,10 +5618,7 @@
         <v>78</v>
       </c>
       <c r="H180" t="s">
-        <v>9</v>
-      </c>
-      <c r="I180" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="181">
@@ -6191,10 +5644,7 @@
         <v>78</v>
       </c>
       <c r="H181" t="s">
-        <v>9</v>
-      </c>
-      <c r="I181" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182">
@@ -6220,10 +5670,7 @@
         <v>78</v>
       </c>
       <c r="H182" t="s">
-        <v>9</v>
-      </c>
-      <c r="I182" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="183">
@@ -6249,10 +5696,7 @@
         <v>78</v>
       </c>
       <c r="H183" t="s">
-        <v>9</v>
-      </c>
-      <c r="I183" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="184">
@@ -6278,10 +5722,7 @@
         <v>78</v>
       </c>
       <c r="H184" t="s">
-        <v>9</v>
-      </c>
-      <c r="I184" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="185">
@@ -6307,10 +5748,7 @@
         <v>78</v>
       </c>
       <c r="H185" t="s">
-        <v>9</v>
-      </c>
-      <c r="I185" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="186">
@@ -6336,10 +5774,7 @@
         <v>78</v>
       </c>
       <c r="H186" t="s">
-        <v>9</v>
-      </c>
-      <c r="I186" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187">
@@ -6365,10 +5800,7 @@
         <v>78</v>
       </c>
       <c r="H187" t="s">
-        <v>9</v>
-      </c>
-      <c r="I187" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="188">
@@ -6394,10 +5826,7 @@
         <v>79</v>
       </c>
       <c r="H188" t="s">
-        <v>9</v>
-      </c>
-      <c r="I188" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189">
@@ -6423,10 +5852,7 @@
         <v>79</v>
       </c>
       <c r="H189" t="s">
-        <v>9</v>
-      </c>
-      <c r="I189" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="190">
@@ -6452,10 +5878,7 @@
         <v>79</v>
       </c>
       <c r="H190" t="s">
-        <v>9</v>
-      </c>
-      <c r="I190" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="191">
@@ -6481,10 +5904,7 @@
         <v>79</v>
       </c>
       <c r="H191" t="s">
-        <v>9</v>
-      </c>
-      <c r="I191" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="192">
@@ -6510,10 +5930,7 @@
         <v>79</v>
       </c>
       <c r="H192" t="s">
-        <v>9</v>
-      </c>
-      <c r="I192" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="193">
@@ -6539,10 +5956,7 @@
         <v>79</v>
       </c>
       <c r="H193" t="s">
-        <v>9</v>
-      </c>
-      <c r="I193" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194">
@@ -6568,10 +5982,7 @@
         <v>79</v>
       </c>
       <c r="H194" t="s">
-        <v>9</v>
-      </c>
-      <c r="I194" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="195">
@@ -6597,10 +6008,7 @@
         <v>79</v>
       </c>
       <c r="H195" t="s">
-        <v>9</v>
-      </c>
-      <c r="I195" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="196">
@@ -6626,10 +6034,7 @@
         <v>79</v>
       </c>
       <c r="H196" t="s">
-        <v>9</v>
-      </c>
-      <c r="I196" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="197">
@@ -6655,10 +6060,7 @@
         <v>79</v>
       </c>
       <c r="H197" t="s">
-        <v>9</v>
-      </c>
-      <c r="I197" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198">
@@ -6684,10 +6086,7 @@
         <v>79</v>
       </c>
       <c r="H198" t="s">
-        <v>9</v>
-      </c>
-      <c r="I198" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="199">
@@ -6713,10 +6112,7 @@
         <v>79</v>
       </c>
       <c r="H199" t="s">
-        <v>9</v>
-      </c>
-      <c r="I199" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="200">
@@ -6742,10 +6138,7 @@
         <v>79</v>
       </c>
       <c r="H200" t="s">
-        <v>9</v>
-      </c>
-      <c r="I200" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201">
@@ -6771,10 +6164,7 @@
         <v>79</v>
       </c>
       <c r="H201" t="s">
-        <v>9</v>
-      </c>
-      <c r="I201" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="202">
@@ -6800,10 +6190,7 @@
         <v>79</v>
       </c>
       <c r="H202" t="s">
-        <v>9</v>
-      </c>
-      <c r="I202" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="203">
@@ -6829,10 +6216,7 @@
         <v>79</v>
       </c>
       <c r="H203" t="s">
-        <v>9</v>
-      </c>
-      <c r="I203" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="204">
@@ -6858,10 +6242,7 @@
         <v>79</v>
       </c>
       <c r="H204" t="s">
-        <v>9</v>
-      </c>
-      <c r="I204" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="205">
@@ -6887,10 +6268,7 @@
         <v>79</v>
       </c>
       <c r="H205" t="s">
-        <v>9</v>
-      </c>
-      <c r="I205" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="206">
@@ -6916,10 +6294,7 @@
         <v>79</v>
       </c>
       <c r="H206" t="s">
-        <v>9</v>
-      </c>
-      <c r="I206" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="207">
@@ -6945,10 +6320,7 @@
         <v>79</v>
       </c>
       <c r="H207" t="s">
-        <v>9</v>
-      </c>
-      <c r="I207" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="208">
@@ -6974,10 +6346,7 @@
         <v>79</v>
       </c>
       <c r="H208" t="s">
-        <v>9</v>
-      </c>
-      <c r="I208" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="209">
@@ -7003,10 +6372,7 @@
         <v>79</v>
       </c>
       <c r="H209" t="s">
-        <v>9</v>
-      </c>
-      <c r="I209" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="210">
@@ -7032,10 +6398,7 @@
         <v>79</v>
       </c>
       <c r="H210" t="s">
-        <v>9</v>
-      </c>
-      <c r="I210" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="211">
@@ -7061,10 +6424,7 @@
         <v>80</v>
       </c>
       <c r="H211" t="s">
-        <v>9</v>
-      </c>
-      <c r="I211" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="212">
@@ -7090,10 +6450,7 @@
         <v>80</v>
       </c>
       <c r="H212" t="s">
-        <v>9</v>
-      </c>
-      <c r="I212" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="213">
@@ -7119,10 +6476,7 @@
         <v>80</v>
       </c>
       <c r="H213" t="s">
-        <v>9</v>
-      </c>
-      <c r="I213" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="214">
@@ -7148,10 +6502,7 @@
         <v>80</v>
       </c>
       <c r="H214" t="s">
-        <v>9</v>
-      </c>
-      <c r="I214" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="215">
@@ -7177,10 +6528,7 @@
         <v>80</v>
       </c>
       <c r="H215" t="s">
-        <v>9</v>
-      </c>
-      <c r="I215" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="216">
@@ -7206,10 +6554,7 @@
         <v>80</v>
       </c>
       <c r="H216" t="s">
-        <v>9</v>
-      </c>
-      <c r="I216" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="217">
@@ -7233,10 +6578,7 @@
         <v>80</v>
       </c>
       <c r="H217" t="s">
-        <v>9</v>
-      </c>
-      <c r="I217" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="218">
@@ -7262,10 +6604,7 @@
         <v>81</v>
       </c>
       <c r="H218" t="s">
-        <v>9</v>
-      </c>
-      <c r="I218" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="219">
@@ -7291,10 +6630,7 @@
         <v>81</v>
       </c>
       <c r="H219" t="s">
-        <v>9</v>
-      </c>
-      <c r="I219" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="220">
@@ -7320,10 +6656,7 @@
         <v>81</v>
       </c>
       <c r="H220" t="s">
-        <v>9</v>
-      </c>
-      <c r="I220" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="221">
@@ -7349,10 +6682,7 @@
         <v>81</v>
       </c>
       <c r="H221" t="s">
-        <v>9</v>
-      </c>
-      <c r="I221" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="222">
@@ -7378,10 +6708,7 @@
         <v>81</v>
       </c>
       <c r="H222" t="s">
-        <v>9</v>
-      </c>
-      <c r="I222" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="223">
@@ -7407,10 +6734,7 @@
         <v>81</v>
       </c>
       <c r="H223" t="s">
-        <v>9</v>
-      </c>
-      <c r="I223" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="224">
@@ -7436,10 +6760,7 @@
         <v>81</v>
       </c>
       <c r="H224" t="s">
-        <v>9</v>
-      </c>
-      <c r="I224" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="225">
@@ -7465,10 +6786,7 @@
         <v>81</v>
       </c>
       <c r="H225" t="s">
-        <v>9</v>
-      </c>
-      <c r="I225" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="226">
@@ -7494,10 +6812,7 @@
         <v>81</v>
       </c>
       <c r="H226" t="s">
-        <v>9</v>
-      </c>
-      <c r="I226" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="227">
@@ -7523,10 +6838,7 @@
         <v>81</v>
       </c>
       <c r="H227" t="s">
-        <v>9</v>
-      </c>
-      <c r="I227" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="228">
@@ -7552,10 +6864,7 @@
         <v>81</v>
       </c>
       <c r="H228" t="s">
-        <v>9</v>
-      </c>
-      <c r="I228" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="229">
@@ -7581,10 +6890,7 @@
         <v>81</v>
       </c>
       <c r="H229" t="s">
-        <v>9</v>
-      </c>
-      <c r="I229" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="230">
@@ -7610,10 +6916,7 @@
         <v>81</v>
       </c>
       <c r="H230" t="s">
-        <v>9</v>
-      </c>
-      <c r="I230" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="231">
@@ -7639,10 +6942,7 @@
         <v>82</v>
       </c>
       <c r="H231" t="s">
-        <v>9</v>
-      </c>
-      <c r="I231" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="232">
@@ -7668,10 +6968,7 @@
         <v>82</v>
       </c>
       <c r="H232" t="s">
-        <v>9</v>
-      </c>
-      <c r="I232" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="233">
@@ -7697,10 +6994,7 @@
         <v>82</v>
       </c>
       <c r="H233" t="s">
-        <v>9</v>
-      </c>
-      <c r="I233" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="234">
@@ -7726,10 +7020,7 @@
         <v>82</v>
       </c>
       <c r="H234" t="s">
-        <v>9</v>
-      </c>
-      <c r="I234" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="235">
@@ -7755,10 +7046,7 @@
         <v>82</v>
       </c>
       <c r="H235" t="s">
-        <v>9</v>
-      </c>
-      <c r="I235" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="236">
@@ -7784,10 +7072,7 @@
         <v>82</v>
       </c>
       <c r="H236" t="s">
-        <v>9</v>
-      </c>
-      <c r="I236" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="237">
@@ -7813,10 +7098,7 @@
         <v>82</v>
       </c>
       <c r="H237" t="s">
-        <v>9</v>
-      </c>
-      <c r="I237" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="238">
@@ -7840,10 +7122,7 @@
         <v>82</v>
       </c>
       <c r="H238" t="s">
-        <v>9</v>
-      </c>
-      <c r="I238" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="239">
@@ -7869,10 +7148,7 @@
         <v>82</v>
       </c>
       <c r="H239" t="s">
-        <v>9</v>
-      </c>
-      <c r="I239" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="240">
@@ -7898,10 +7174,7 @@
         <v>82</v>
       </c>
       <c r="H240" t="s">
-        <v>9</v>
-      </c>
-      <c r="I240" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="241">
@@ -7927,10 +7200,7 @@
         <v>82</v>
       </c>
       <c r="H241" t="s">
-        <v>9</v>
-      </c>
-      <c r="I241" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="242">
@@ -7956,10 +7226,7 @@
         <v>82</v>
       </c>
       <c r="H242" t="s">
-        <v>9</v>
-      </c>
-      <c r="I242" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="243">
@@ -7985,10 +7252,7 @@
         <v>82</v>
       </c>
       <c r="H243" t="s">
-        <v>9</v>
-      </c>
-      <c r="I243" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="244">
@@ -8014,10 +7278,7 @@
         <v>82</v>
       </c>
       <c r="H244" t="s">
-        <v>9</v>
-      </c>
-      <c r="I244" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="245">
@@ -8043,10 +7304,7 @@
         <v>82</v>
       </c>
       <c r="H245" t="s">
-        <v>9</v>
-      </c>
-      <c r="I245" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="246">
@@ -8072,10 +7330,7 @@
         <v>82</v>
       </c>
       <c r="H246" t="s">
-        <v>9</v>
-      </c>
-      <c r="I246" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="247">
@@ -8101,10 +7356,7 @@
         <v>82</v>
       </c>
       <c r="H247" t="s">
-        <v>9</v>
-      </c>
-      <c r="I247" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="248">
@@ -8130,10 +7382,7 @@
         <v>82</v>
       </c>
       <c r="H248" t="s">
-        <v>9</v>
-      </c>
-      <c r="I248" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="249">
@@ -8159,10 +7408,7 @@
         <v>82</v>
       </c>
       <c r="H249" t="s">
-        <v>9</v>
-      </c>
-      <c r="I249" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="250">
@@ -8188,10 +7434,7 @@
         <v>82</v>
       </c>
       <c r="H250" t="s">
-        <v>9</v>
-      </c>
-      <c r="I250" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
